--- a/Optimization/Gurobi/Children+Elderly+hcw/compiled-fraction-0.25.xlsx
+++ b/Optimization/Gurobi/Children+Elderly+hcw/compiled-fraction-0.25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Transport part</t>
   </si>
@@ -49,28 +49,28 @@
     <t>1(12.0 times)</t>
   </si>
   <si>
-    <t>1(80.0 times)</t>
-  </si>
-  <si>
-    <t>1(14.0 times), 2(13.0 times), 3(11.0 times), 4(11.0 times), 5(27.0 times), 6(33.0 times), 9(11.0 times)</t>
-  </si>
-  <si>
-    <t>1(120.0 times), 2(90.0 times), 3(270.0 times), 4(59.0 times), 5(115.0 times), 6(86.0 times), 7(93.0 times), 8(82.0 times), 9(283.0 times), 10(206.0 times)</t>
-  </si>
-  <si>
-    <t>1(1296000 Rs)</t>
-  </si>
-  <si>
-    <t>1(664800 Rs)</t>
-  </si>
-  <si>
-    <t>1(2605160 Rs)</t>
-  </si>
-  <si>
-    <t>1(392728 Rs), 2(130762 Rs), 3(330000 Rs), 4(230000 Rs), 5(542955 Rs), 6(479871 Rs), 9(129122 Rs)</t>
-  </si>
-  <si>
-    <t>1(635828 Rs), 2(468960 Rs), 3(1598587 Rs), 4(314626 Rs), 5(638272 Rs), 6(467505 Rs), 7(489030 Rs), 8(441417 Rs), 9(1604724 Rs), 10(1043408 Rs)</t>
+    <t>1(76.0 times)</t>
+  </si>
+  <si>
+    <t>1(13.0 times), 2(11.0 times), 3(10.0 times), 4(8.0 times), 5(31.0 times), 6(36.0 times), 9(11.0 times)</t>
+  </si>
+  <si>
+    <t>1(111.0 times), 2(94.0 times), 3(273.0 times), 4(209.0 times), 5(183.0 times), 6(97.0 times), 7(96.0 times), 8(88.0 times), 9(243.0 times), 10(341.0 times)</t>
+  </si>
+  <si>
+    <t>1(1566000 Rs)</t>
+  </si>
+  <si>
+    <t>1(775600 Rs)</t>
+  </si>
+  <si>
+    <t>1(3445587 Rs)</t>
+  </si>
+  <si>
+    <t>1(441749 Rs), 2(120000 Rs), 3(300000 Rs), 4(320000 Rs), 5(789268 Rs), 6(789750 Rs), 9(129122 Rs)</t>
+  </si>
+  <si>
+    <t>1(585034 Rs), 2(495571 Rs), 3(1606366 Rs), 4(1128384 Rs), 5(1016989 Rs), 6(502990 Rs), 7(500717 Rs), 8(469310 Rs), 9(1347532 Rs), 10(1748165 Rs)</t>
   </si>
   <si>
     <t>Inventory part</t>
@@ -100,55 +100,58 @@
     <t>I</t>
   </si>
   <si>
-    <t>1(3 times)</t>
-  </si>
-  <si>
-    <t>1(0 times), 2(0 times), 3(0 times), 4(0 times), 5(0 times), 6(0 times), 7(0 times), 8(0 times), 9(0 times), 10(0 times)</t>
-  </si>
-  <si>
-    <t>1(9.0 units)</t>
-  </si>
-  <si>
-    <t>1(0 units), 2(0 units), 3(0 units), 4(0 units), 5(0 units), 6(0 units), 7(0 units), 8(0 units), 9(0 units), 10(0 units)</t>
-  </si>
-  <si>
-    <t>1(8 Rs)</t>
+    <t>1(2 times)</t>
+  </si>
+  <si>
+    <t>4(1 times)</t>
+  </si>
+  <si>
+    <t>1(0 times), 2(4 times), 3(0 times), 4(0 times), 5(1 times), 6(0 times), 7(1 times), 8(3 times), 9(0 times), 10(0 times)</t>
+  </si>
+  <si>
+    <t>1(20825.5 units)</t>
+  </si>
+  <si>
+    <t>4(2416.0 units)</t>
+  </si>
+  <si>
+    <t>1(2983 units), 2(5549 units), 3(0 units), 4(2608 units), 5(3650 units), 6(619 units), 7(2939 units), 8(7034 units), 9(179 units), 10(202 units)</t>
+  </si>
+  <si>
+    <t>1(12495 Rs)</t>
+  </si>
+  <si>
+    <t>4(683 Rs)</t>
+  </si>
+  <si>
+    <t>1(965 Rs), 2(8119 Rs), 3(0 Rs), 4(891 Rs), 5(2585 Rs), 6(250 Rs), 7(1236 Rs), 8(9057 Rs), 9(53 Rs), 10(52 Rs)</t>
+  </si>
+  <si>
+    <t>Ordering part</t>
+  </si>
+  <si>
+    <t>Average quantities ordered over the entire planning horizon</t>
+  </si>
+  <si>
+    <t>1(1477904 units)</t>
+  </si>
+  <si>
+    <t>1(233353 units)</t>
+  </si>
+  <si>
+    <t>1(235341 units), 2(74150 units), 3(212515 units), 4(278728 units), 5(137270 units), 6(124761 units), 9(68913 units)</t>
+  </si>
+  <si>
+    <t>1(15072 units), 2(9406 units), 3(10966 units), 4(9345 units), 5(9040 units), 6(9739 units), 7(9222 units), 8(9361 units), 9(10577 units), 10(9831 units)</t>
+  </si>
+  <si>
+    <t>1(0 Rs)</t>
+  </si>
+  <si>
+    <t>1(0 Rs), 2(0 Rs), 3(0 Rs), 4(0 Rs), 5(0 Rs), 6(0 Rs), 9(0 Rs)</t>
   </si>
   <si>
     <t>1(0 Rs), 2(0 Rs), 3(0 Rs), 4(0 Rs), 5(0 Rs), 6(0 Rs), 7(0 Rs), 8(0 Rs), 9(0 Rs), 10(0 Rs)</t>
-  </si>
-  <si>
-    <t>Ordering part</t>
-  </si>
-  <si>
-    <t>Average quantities ordered over the entire planning horizon</t>
-  </si>
-  <si>
-    <t>1(1000000 units)</t>
-  </si>
-  <si>
-    <t>1(150000 units)</t>
-  </si>
-  <si>
-    <t>1(164250 units), 2(58862 units), 3(208718 units), 4(144922 units), 5(100410 units), 6(51902 units), 9(56492 units)</t>
-  </si>
-  <si>
-    <t>1(13015 units), 2(6930 units), 3(8070 units), 4(7726 units), 5(7372 units), 6(8090 units), 7(8007 units), 8(8176 units), 9(8776 units), 10(8434 units)</t>
-  </si>
-  <si>
-    <t>1(2400000 Rs)</t>
-  </si>
-  <si>
-    <t>1(1200000 Rs)</t>
-  </si>
-  <si>
-    <t>1(6000000 Rs)</t>
-  </si>
-  <si>
-    <t>1(350000 Rs), 2(325000 Rs), 3(275000 Rs), 4(275000 Rs), 5(675000 Rs), 6(825000 Rs), 9(275000 Rs)</t>
-  </si>
-  <si>
-    <t>1(1800000 Rs), 2(1350000 Rs), 3(4050000 Rs), 4(885000 Rs), 5(1725000 Rs), 6(1290000 Rs), 7(1395000 Rs), 8(1230000 Rs), 9(4245000 Rs), 10(3090000 Rs)</t>
   </si>
   <si>
     <t>Shortage part</t>
@@ -560,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>1296000</v>
+        <v>1566000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -577,7 +580,7 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>664800</v>
+        <v>775600</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -594,7 +597,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>2605160</v>
+        <v>3445587</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -611,7 +614,7 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>2235438</v>
+        <v>2889889</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -628,7 +631,7 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>7702357</v>
+        <v>9401058</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -664,13 +667,13 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>12495</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -691,8 +694,17 @@
       <c r="B15" t="s">
         <v>25</v>
       </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
       <c r="F15">
-        <v>0</v>
+        <v>683</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -714,21 +726,21 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>244356.4211305216</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -736,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -753,13 +765,13 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E24">
-        <v>2400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -770,13 +782,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E25">
-        <v>1200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -787,13 +799,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -804,13 +816,13 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E27">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -821,32 +833,32 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28">
-        <v>21060000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -860,10 +872,10 @@
         <v>10</v>
       </c>
       <c r="D35">
-        <v>3144450000</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>314445000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -877,10 +889,10 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <v>5196081600</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>866013600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -894,10 +906,10 @@
         <v>12</v>
       </c>
       <c r="D37">
-        <v>11660040000</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>971670000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -911,10 +923,10 @@
         <v>12</v>
       </c>
       <c r="D38">
-        <v>37605261600</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>3133771800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -928,10 +940,10 @@
         <v>19</v>
       </c>
       <c r="D39">
-        <v>48923845200</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>2574939221.052631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -945,10 +957,10 @@
         <v>17</v>
       </c>
       <c r="D40">
-        <v>25739308200</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1514076952.941176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -962,10 +974,10 @@
         <v>16</v>
       </c>
       <c r="D41">
-        <v>45684278400</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>2855267400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -979,10 +991,10 @@
         <v>11</v>
       </c>
       <c r="D42">
-        <v>14836044600</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1348731327.272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -996,10 +1008,10 @@
         <v>20</v>
       </c>
       <c r="D43">
-        <v>12612738000</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>630636900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1013,10 +1025,10 @@
         <v>28</v>
       </c>
       <c r="D44">
-        <v>74000008800</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>2642857457.142857</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
